--- a/漢字（かんじ）/t.xlsx
+++ b/漢字（かんじ）/t.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E76718-9435-43CD-BF14-198ABAE0CA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB746F8F-B42F-4ABF-B547-19631F3DBBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7488" yWindow="936" windowWidth="14244" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="た" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="215">
   <si>
     <t>たん</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,11 +505,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>単身｜たんしん
-簡単｜かんたん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -635,12 +630,6 @@
   </si>
   <si>
     <t>溜息｜ためいき</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天気｜てんき
-摩天楼｜まてんろう
-天変地異｜てんぺんちい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1063,6 +1052,28 @@
 対応｜たいおう
 対応策｜たいおうさく
 絶対｜ぜったい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素敵｜すてき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>単身｜たんしん
+単調｜たんちょう
+単語｜たんご
+簡単｜かんたん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天気｜てんき
+天然｜てんえん
+摩天楼｜まてんろう
+天変地異｜てんぺんちい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1444,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1493,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>53</v>
@@ -1511,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1559,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>34</v>
@@ -1591,7 +1602,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1610,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>80</v>
@@ -1636,19 +1647,19 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -1659,7 +1670,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>80</v>
@@ -1679,16 +1690,16 @@
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -1699,7 +1710,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>83</v>
@@ -1708,7 +1719,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1728,7 +1739,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="58.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1739,13 +1750,13 @@
         <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1759,13 +1770,13 @@
         <v>88</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.200000000000003" x14ac:dyDescent="0.45">
@@ -1784,10 +1795,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1795,10 +1806,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="45.6" x14ac:dyDescent="0.45">
@@ -1806,10 +1817,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1817,10 +1828,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.45">
@@ -1828,10 +1839,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1866,13 +1877,13 @@
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1894,18 +1905,18 @@
         <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1916,7 +1927,7 @@
         <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -1932,10 +1943,10 @@
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1950,10 +1961,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327B8DA1-50E3-4B70-A84E-353D1AC46474}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1982,7 +1993,7 @@
         <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -1993,10 +2004,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2004,7 +2015,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -2034,10 +2045,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2045,10 +2056,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -2056,10 +2067,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2070,7 +2081,7 @@
         <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -2078,43 +2089,43 @@
         <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>184</v>
+        <v>207</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2122,106 +2133,117 @@
         <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="162" x14ac:dyDescent="0.45">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="162" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="108" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="108" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>174</v>
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2272,7 +2294,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -2292,7 +2314,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -2321,7 +2343,7 @@
         <v>86</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34.200000000000003" x14ac:dyDescent="0.45">
@@ -2332,7 +2354,7 @@
         <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -2341,7 +2363,7 @@
         <v>98</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.45">
@@ -2361,7 +2383,7 @@
         <v>67</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.45">
@@ -2369,19 +2391,19 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2403,10 +2425,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.45">
@@ -2417,7 +2439,7 @@
         <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2428,7 +2450,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2436,10 +2458,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.45">
@@ -2450,7 +2472,7 @@
         <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="108" x14ac:dyDescent="0.45">
@@ -2461,7 +2483,7 @@
         <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.45">
@@ -2472,7 +2494,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2491,10 +2513,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -2502,10 +2524,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2513,10 +2535,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2524,10 +2546,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="97.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2535,10 +2557,10 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -2546,10 +2568,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2565,13 +2587,13 @@
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/t.xlsx
+++ b/漢字（かんじ）/t.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB746F8F-B42F-4ABF-B547-19631F3DBBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CE11C2-E6F2-4DC7-841B-15F6C99E90B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="た" sheetId="1" r:id="rId1"/>
@@ -455,11 +455,6 @@
   </si>
   <si>
     <t>付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受付｜うけつけ
-受付期間｜うけつけきかん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1074,6 +1069,12 @@
 天然｜てんえん
 摩天楼｜まてんろう
 天変地異｜てんぺんちい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受付｜うけつけ
+受付期間｜うけつけきかん
+片付｜かたづけ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1493,7 +1494,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>53</v>
@@ -1522,7 +1523,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1570,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>34</v>
@@ -1610,7 +1611,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>80</v>
@@ -1647,19 +1648,19 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -1670,7 +1671,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>80</v>
@@ -1690,16 +1691,16 @@
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -1710,7 +1711,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>83</v>
@@ -1719,7 +1720,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1739,7 +1740,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="58.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1750,13 +1751,13 @@
         <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1770,13 +1771,13 @@
         <v>88</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.200000000000003" x14ac:dyDescent="0.45">
@@ -1784,10 +1785,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1795,10 +1796,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1806,10 +1807,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="45.6" x14ac:dyDescent="0.45">
@@ -1817,10 +1818,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1828,10 +1829,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.45">
@@ -1839,10 +1840,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1855,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B9BE40-8F94-435A-94AD-7D74FB508EA4}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1877,13 +1878,13 @@
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1905,18 +1906,18 @@
         <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1927,10 +1928,10 @@
         <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
@@ -1938,15 +1939,15 @@
         <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>103</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1963,7 +1964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327B8DA1-50E3-4B70-A84E-353D1AC46474}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1993,7 +1994,7 @@
         <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -2004,7 +2005,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -2015,7 +2016,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -2045,10 +2046,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2056,10 +2057,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -2067,10 +2068,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2081,7 +2082,7 @@
         <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -2089,10 +2090,10 @@
         <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -2100,10 +2101,10 @@
         <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -2114,7 +2115,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -2122,10 +2123,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2133,10 +2134,10 @@
         <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2144,10 +2145,10 @@
         <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -2155,10 +2156,10 @@
         <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -2166,10 +2167,10 @@
         <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="162" x14ac:dyDescent="0.45">
@@ -2180,7 +2181,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2191,7 +2192,7 @@
         <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="108" x14ac:dyDescent="0.45">
@@ -2199,10 +2200,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2210,7 +2211,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -2221,7 +2222,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -2240,10 +2241,10 @@
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2294,7 +2295,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -2314,7 +2315,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -2323,7 +2324,7 @@
         <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.45">
@@ -2343,7 +2344,7 @@
         <v>86</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34.200000000000003" x14ac:dyDescent="0.45">
@@ -2354,7 +2355,7 @@
         <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -2363,7 +2364,7 @@
         <v>98</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.45">
@@ -2383,7 +2384,7 @@
         <v>67</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.45">
@@ -2391,19 +2392,19 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2425,10 +2426,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.45">
@@ -2439,7 +2440,7 @@
         <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2450,7 +2451,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2458,10 +2459,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.45">
@@ -2472,7 +2473,7 @@
         <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="108" x14ac:dyDescent="0.45">
@@ -2483,7 +2484,7 @@
         <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.45">
@@ -2494,7 +2495,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2513,10 +2514,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -2524,10 +2525,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2535,10 +2536,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2546,10 +2547,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="97.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2557,10 +2558,10 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -2568,10 +2569,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2587,13 +2588,13 @@
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/t.xlsx
+++ b/漢字（かんじ）/t.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CE11C2-E6F2-4DC7-841B-15F6C99E90B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F314DF3E-A7A6-4545-A419-DD7F87A95BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="た" sheetId="1" r:id="rId1"/>
@@ -996,10 +996,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今年｜ことし</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大変｜たいへん
 大半｜たいはん
 大使｜たいし
@@ -1075,6 +1071,11 @@
     <t>受付｜うけつけ
 受付期間｜うけつけきかん
 片付｜かたづけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今年｜ことし
+半年｜はんとし</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1611,7 +1612,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>80</v>
@@ -1657,10 +1658,10 @@
         <v>80</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -1711,7 +1712,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>83</v>
@@ -1751,7 +1752,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>121</v>
@@ -1840,10 +1841,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1856,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B9BE40-8F94-435A-94AD-7D74FB508EA4}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1939,7 +1940,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2016,7 +2017,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -2090,10 +2091,10 @@
         <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -2101,10 +2102,10 @@
         <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -2123,10 +2124,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2257,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAC5C41-3146-4E4D-B594-9E90365AA5EF}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2586,15 +2587,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>199</v>
+      <c r="C24" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/t.xlsx
+++ b/漢字（かんじ）/t.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F314DF3E-A7A6-4545-A419-DD7F87A95BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA36FF0A-9B58-43D9-8F6C-474C4B434ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="た" sheetId="1" r:id="rId1"/>
@@ -824,16 +824,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>体育｜たいいく
-身体｜しんたい
-液体｜えきたい
-団体｜だんたい
-一体｜いったい
-一体化｜いったいか
-大体｜だいたい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>徹夜｜てつや
 徹底｜てってい</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1009,10 +999,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>沢山｜たくさん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>摘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1076,6 +1062,22 @@
   <si>
     <t>今年｜ことし
 半年｜はんとし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育｜たいいく
+体験｜たいけん
+身体｜しんたい
+液体｜えきたい
+団体｜だんたい
+一体｜いったい
+一体化｜いったいか
+大体｜だいたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沢山｜たくさん
+贅沢｜ぜいたく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1457,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1612,7 +1614,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>80</v>
@@ -1644,7 +1646,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1658,13 +1660,13 @@
         <v>80</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="126" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="144" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1672,7 +1674,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>80</v>
@@ -1712,7 +1714,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>83</v>
@@ -1721,7 +1723,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1752,7 +1754,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>121</v>
@@ -1819,10 +1821,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1830,10 +1832,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.45">
@@ -1841,10 +1843,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1909,7 @@
         <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1940,7 +1942,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1995,7 +1997,7 @@
         <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -2017,7 +2019,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -2050,7 +2052,7 @@
         <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2091,10 +2093,10 @@
         <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -2102,10 +2104,10 @@
         <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -2124,10 +2126,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2135,10 +2137,10 @@
         <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2146,10 +2148,10 @@
         <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -2157,10 +2159,10 @@
         <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -2182,7 +2184,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2193,7 +2195,7 @@
         <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="108" x14ac:dyDescent="0.45">
@@ -2204,7 +2206,7 @@
         <v>156</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2245,7 +2247,7 @@
         <v>132</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2258,7 +2260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAC5C41-3146-4E4D-B594-9E90365AA5EF}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -2296,7 +2298,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -2316,7 +2318,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -2396,7 +2398,7 @@
         <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>136</v>
@@ -2474,7 +2476,7 @@
         <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="108" x14ac:dyDescent="0.45">
@@ -2529,7 +2531,7 @@
         <v>107</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2562,7 +2564,7 @@
         <v>147</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -2570,10 +2572,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2589,13 +2591,13 @@
     </row>
     <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/t.xlsx
+++ b/漢字（かんじ）/t.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA36FF0A-9B58-43D9-8F6C-474C4B434ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7190E379-0A5D-4ABE-8B4F-09AEB665935E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="た" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="217">
   <si>
     <t>たん</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1078,6 +1078,14 @@
   <si>
     <t>沢山｜たくさん
 贅沢｜ぜいたく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案｜とうあん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1459,7 +1467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -2258,10 +2266,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAC5C41-3146-4E4D-B594-9E90365AA5EF}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2415,46 +2423,49 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>215</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="1"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>141</v>
+        <v>58</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2462,87 +2473,87 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="108" x14ac:dyDescent="0.45">
+        <v>165</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="108" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2550,53 +2561,64 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="97.8" customHeight="1" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="97.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>212</v>
       </c>
     </row>

--- a/漢字（かんじ）/t.xlsx
+++ b/漢字（かんじ）/t.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7190E379-0A5D-4ABE-8B4F-09AEB665935E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C80B2C0-135B-41F6-86ED-1A9908D0318F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="221">
   <si>
     <t>たん</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,16 +459,6 @@
   </si>
   <si>
     <t>程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特攻｜とっこう
-特攻隊｜とっこうたい
-特殊｜とくしゅ
-特別｜とくべつ
-特色｜とくしょく
-特徴｜とくちょう
-特定｜とくてい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -532,11 +522,6 @@
   </si>
   <si>
     <t>転</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自転車｜じてんしゃ
-転送｜てんそう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -851,13 +836,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>焦点｜しょうてん
-欠点｜けってん
-終点｜しゅうてん
-起点｜きてん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通話｜つうわ
 通信｜つうしん
 通知｜つうち
@@ -922,14 +900,6 @@
     <t>到来｜とうらい
 到達｜とうたつ
 到着｜とうちゃく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配達｜はいたつ
-発達｜はったつ
-到達｜とうたつ
-達人｜たつじん
-達人級｜たつじんきゅう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1047,13 +1017,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天気｜てんき
-天然｜てんえん
-摩天楼｜まてんろう
-天変地異｜てんぺんちい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>受付｜うけつけ
 受付期間｜うけつけきかん
 片付｜かたづけ</t>
@@ -1086,6 +1049,90 @@
   </si>
   <si>
     <t>答案｜とうあん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自転車｜じてんしゃ
+転送｜てんそう
+運転｜うんてん
+転職｜てんしょく
+転校｜てんこう
+転校生｜てんこうせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天気｜てんき
+天然｜てんねん
+天然水｜てんねんすい
+天井｜てんじょう
+摩天楼｜まてんろう
+天変地異｜てんぺんちい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦点｜しょうてん
+欠点｜けってん
+終点｜しゅうてん
+起点｜きてん
+点数｜てんすう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配達｜はいたつ
+伝達｜でんたつ
+速達｜そくたつ
+発達｜はったつ
+到達｜とうたつ
+達人｜たつじん
+達人級｜たつじんきゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特攻｜とっこう
+特攻隊｜とっこうたい
+特殊｜とくしゅ
+特別｜とくべつ
+特色｜とくしょく
+特徴｜とくちょう
+特定｜とくてい
+独特｜どくとく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">年上｜としうえ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年寄｜としより</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とびら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1467,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1505,7 +1552,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>53</v>
@@ -1534,7 +1581,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1582,7 +1629,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>34</v>
@@ -1622,7 +1669,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>80</v>
@@ -1659,19 +1706,19 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="144" x14ac:dyDescent="0.45">
@@ -1682,7 +1729,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>80</v>
@@ -1702,19 +1749,19 @@
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="108" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="126" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1722,7 +1769,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>83</v>
@@ -1731,7 +1778,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1751,7 +1798,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="58.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1762,13 +1809,16 @@
         <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1782,13 +1832,13 @@
         <v>88</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.200000000000003" x14ac:dyDescent="0.45">
@@ -1796,10 +1846,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1807,10 +1857,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1818,10 +1868,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="45.6" x14ac:dyDescent="0.45">
@@ -1829,10 +1879,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1840,10 +1890,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.45">
@@ -1851,10 +1901,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1868,7 +1918,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1889,13 +1939,13 @@
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1917,18 +1967,18 @@
         <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1939,7 +1989,7 @@
         <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1950,15 +2000,15 @@
         <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1975,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327B8DA1-50E3-4B70-A84E-353D1AC46474}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2005,7 +2055,7 @@
         <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -2016,10 +2066,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="108" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2027,7 +2077,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -2052,26 +2102,26 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="108" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -2079,10 +2129,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2093,7 +2143,7 @@
         <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -2101,10 +2151,10 @@
         <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -2112,10 +2162,10 @@
         <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -2126,7 +2176,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -2134,10 +2184,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2145,10 +2195,10 @@
         <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2156,10 +2206,10 @@
         <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -2167,10 +2217,10 @@
         <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -2181,7 +2231,7 @@
         <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="162" x14ac:dyDescent="0.45">
@@ -2192,7 +2242,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2203,7 +2253,7 @@
         <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="108" x14ac:dyDescent="0.45">
@@ -2211,10 +2261,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2222,7 +2272,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -2233,7 +2283,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -2252,10 +2302,10 @@
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2268,8 +2318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAC5C41-3146-4E4D-B594-9E90365AA5EF}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2306,7 +2356,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -2326,7 +2376,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -2335,7 +2385,7 @@
         <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.45">
@@ -2355,7 +2405,7 @@
         <v>86</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34.200000000000003" x14ac:dyDescent="0.45">
@@ -2366,7 +2416,7 @@
         <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -2375,7 +2425,7 @@
         <v>98</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.45">
@@ -2389,13 +2439,13 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>112</v>
+        <v>193</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.45">
@@ -2403,34 +2453,40 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>136</v>
+        <v>173</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="32.4" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
@@ -2442,8 +2498,12 @@
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -2451,11 +2511,14 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
@@ -2465,7 +2528,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2476,7 +2539,7 @@
         <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2484,10 +2547,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.45">
@@ -2498,7 +2561,7 @@
         <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="108" x14ac:dyDescent="0.45">
@@ -2509,7 +2572,7 @@
         <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.45">
@@ -2520,7 +2583,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2539,10 +2602,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -2550,10 +2613,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2561,10 +2624,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2572,10 +2635,10 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="97.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2583,10 +2646,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -2594,10 +2657,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2613,13 +2676,13 @@
     </row>
     <row r="25" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/t.xlsx
+++ b/漢字（かんじ）/t.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C80B2C0-135B-41F6-86ED-1A9908D0318F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE270E19-E86A-4E91-B483-0D04F3C3BA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="た" sheetId="1" r:id="rId1"/>
@@ -923,18 +923,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>規定｜きてい
-定期｜ていき
-測定｜そくてい
-特定｜とくてい
-判定｜はんてい
-仮定｜かてい
-肯定｜こうてい
-否定｜ひてい
-確定｜かくてい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登録｜とうろく
 登校｜とうこう</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1133,6 +1121,19 @@
   </si>
   <si>
     <t>扉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規定｜きてい
+定期｜ていき
+測定｜そくてい
+特定｜とくてい
+判定｜はんてい
+仮定｜かてい
+肯定｜こうてい
+否定｜ひてい
+確定｜かくてい
+定年｜ていねん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1669,7 +1670,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>80</v>
@@ -1715,10 +1716,10 @@
         <v>80</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="144" x14ac:dyDescent="0.45">
@@ -1729,7 +1730,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>80</v>
@@ -1769,7 +1770,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>83</v>
@@ -1778,7 +1779,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1809,7 +1810,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>119</v>
@@ -1818,7 +1819,7 @@
         <v>118</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1901,10 +1902,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +2001,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2025,8 +2026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327B8DA1-50E3-4B70-A84E-353D1AC46474}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2077,7 +2078,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -2110,7 +2111,7 @@
         <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="108" x14ac:dyDescent="0.45">
@@ -2121,7 +2122,7 @@
         <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -2151,10 +2152,10 @@
         <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -2162,10 +2163,10 @@
         <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -2184,10 +2185,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2234,7 +2235,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="162" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="180" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -2242,7 +2243,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2318,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAC5C41-3146-4E4D-B594-9E90365AA5EF}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2385,7 +2386,7 @@
         <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.45">
@@ -2439,13 +2440,13 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.45">
@@ -2473,10 +2474,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>134</v>
@@ -2499,10 +2500,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -2561,7 +2562,7 @@
         <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="108" x14ac:dyDescent="0.45">
@@ -2657,10 +2658,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2676,13 +2677,13 @@
     </row>
     <row r="25" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/t.xlsx
+++ b/漢字（かんじ）/t.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE270E19-E86A-4E91-B483-0D04F3C3BA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06133A50-397F-48F6-B857-2B63F9FAA34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -998,13 +998,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>単身｜たんしん
-単調｜たんちょう
-単語｜たんご
-簡単｜かんたん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>受付｜うけつけ
 受付期間｜うけつけきかん
 片付｜かたづけ</t>
@@ -1134,6 +1127,14 @@
 否定｜ひてい
 確定｜かくてい
 定年｜ていねん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>単身｜たんしん
+単調｜たんちょう
+単語｜たんご
+簡単｜かんたん
+単純｜たんじゅん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1515,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1663,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1670,7 +1671,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>80</v>
@@ -1719,7 +1720,7 @@
         <v>194</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="144" x14ac:dyDescent="0.45">
@@ -1730,7 +1731,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>80</v>
@@ -1779,7 +1780,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1819,7 +1820,7 @@
         <v>118</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1919,7 +1920,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C4:D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2001,7 +2002,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2026,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327B8DA1-50E3-4B70-A84E-353D1AC46474}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2078,7 +2079,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -2111,7 +2112,7 @@
         <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="108" x14ac:dyDescent="0.45">
@@ -2122,7 +2123,7 @@
         <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -2243,7 +2244,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2386,7 +2387,7 @@
         <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.45">
@@ -2446,7 +2447,7 @@
         <v>192</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.45">
@@ -2474,10 +2475,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>134</v>
@@ -2500,10 +2501,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -2683,7 +2684,7 @@
         <v>192</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/t.xlsx
+++ b/漢字（かんじ）/t.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06133A50-397F-48F6-B857-2B63F9FAA34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4D2A31-56AA-4F88-A68C-78EA604B774D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="た" sheetId="1" r:id="rId1"/>
@@ -982,14 +982,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>対象｜たいしょう
-対等｜たいとう
-対応｜たいおう
-対応策｜たいおうさく
-絶対｜ぜったい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>敵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1135,6 +1127,16 @@
 単語｜たんご
 簡単｜かんたん
 単純｜たんじゅん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>対象｜たいしょう
+対等｜たいとう
+対応｜たいおう
+対応策｜たいおうさく
+絶対｜ぜったい
+対処｜たいしょ
+対処方法｜たいしょほうほう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1516,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1671,7 +1673,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>80</v>
@@ -1720,7 +1722,7 @@
         <v>194</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="144" x14ac:dyDescent="0.45">
@@ -1731,7 +1733,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>80</v>
@@ -1780,7 +1782,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1803,7 +1805,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="58.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="126" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1811,7 +1813,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>119</v>
@@ -1820,7 +1822,7 @@
         <v>118</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -2002,7 +2004,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2027,7 +2029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327B8DA1-50E3-4B70-A84E-353D1AC46474}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -2079,7 +2081,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -2112,7 +2114,7 @@
         <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="108" x14ac:dyDescent="0.45">
@@ -2123,7 +2125,7 @@
         <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -2164,10 +2166,10 @@
         <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -2244,7 +2246,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2387,7 +2389,7 @@
         <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.45">
@@ -2447,7 +2449,7 @@
         <v>192</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.45">
@@ -2475,10 +2477,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>134</v>
@@ -2501,10 +2503,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -2684,7 +2686,7 @@
         <v>192</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/t.xlsx
+++ b/漢字（かんじ）/t.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4D2A31-56AA-4F88-A68C-78EA604B774D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8934B261-2CAB-4E68-8815-C12C5344D8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,11 +498,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多彩｜たさい
-多少｜たしょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>討</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -571,10 +566,6 @@
   </si>
   <si>
     <t>盗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>典型｜てんけい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1137,6 +1128,18 @@
 絶対｜ぜったい
 対処｜たいしょ
 対処方法｜たいしょほうほう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>典型｜てんけい
+古典｜こてん
+古典文学｜こてんぶんがく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多彩｜たさい
+多少｜たしょう
+多忙｜たぼう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1518,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1548,7 +1551,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1556,7 +1559,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>53</v>
@@ -1585,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -1633,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>34</v>
@@ -1673,7 +1676,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>80</v>
@@ -1710,19 +1713,19 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="144" x14ac:dyDescent="0.45">
@@ -1733,7 +1736,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>80</v>
@@ -1753,16 +1756,16 @@
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -1773,7 +1776,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>83</v>
@@ -1782,7 +1785,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1802,7 +1805,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -1813,16 +1816,16 @@
         <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -1836,13 +1839,13 @@
         <v>88</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.200000000000003" x14ac:dyDescent="0.45">
@@ -1861,10 +1864,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1872,10 +1875,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="45.6" x14ac:dyDescent="0.45">
@@ -1883,10 +1886,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1894,10 +1897,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.45">
@@ -1905,10 +1908,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1943,13 +1946,13 @@
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1971,18 +1974,18 @@
         <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1993,7 +1996,7 @@
         <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -2004,15 +2007,15 @@
         <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2029,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327B8DA1-50E3-4B70-A84E-353D1AC46474}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2059,7 +2062,7 @@
         <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -2070,7 +2073,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="108" x14ac:dyDescent="0.45">
@@ -2081,7 +2084,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -2111,10 +2114,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="108" x14ac:dyDescent="0.45">
@@ -2122,21 +2125,21 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2147,7 +2150,7 @@
         <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -2155,10 +2158,10 @@
         <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -2166,10 +2169,10 @@
         <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -2180,7 +2183,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -2188,10 +2191,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2199,10 +2202,10 @@
         <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2210,10 +2213,10 @@
         <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -2221,10 +2224,10 @@
         <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -2235,7 +2238,7 @@
         <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="180" x14ac:dyDescent="0.45">
@@ -2246,7 +2249,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2257,7 +2260,7 @@
         <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="108" x14ac:dyDescent="0.45">
@@ -2265,10 +2268,10 @@
         <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2276,7 +2279,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -2287,7 +2290,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -2306,10 +2309,10 @@
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2360,7 +2363,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -2380,7 +2383,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -2389,7 +2392,7 @@
         <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.45">
@@ -2409,7 +2412,7 @@
         <v>86</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34.200000000000003" x14ac:dyDescent="0.45">
@@ -2420,7 +2423,7 @@
         <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -2429,7 +2432,7 @@
         <v>98</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.45">
@@ -2443,13 +2446,13 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.45">
@@ -2457,10 +2460,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>66</v>
@@ -2469,7 +2472,7 @@
         <v>67</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32.4" x14ac:dyDescent="0.45">
@@ -2477,19 +2480,19 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2503,10 +2506,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -2515,10 +2518,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="1"/>
@@ -2532,7 +2535,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2543,7 +2546,7 @@
         <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -2551,10 +2554,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.45">
@@ -2565,7 +2568,7 @@
         <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="108" x14ac:dyDescent="0.45">
@@ -2576,7 +2579,7 @@
         <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.45">
@@ -2587,7 +2590,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2609,7 +2612,7 @@
         <v>107</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -2620,7 +2623,7 @@
         <v>106</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2628,10 +2631,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -2639,10 +2642,10 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="97.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -2650,10 +2653,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -2661,10 +2664,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2680,13 +2683,13 @@
     </row>
     <row r="25" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
